--- a/Resources/Testdata.xlsx
+++ b/Resources/Testdata.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0893DEA-03D9-4310-9234-478C467B778A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8233A6-6DD7-477D-9EA0-B4A28263CE2F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>User</t>
   </si>
@@ -59,13 +60,25 @@
   </si>
   <si>
     <t>Base</t>
+  </si>
+  <si>
+    <t>FTNames</t>
+  </si>
+  <si>
+    <t>DecnFT1</t>
+  </si>
+  <si>
+    <t>DecnFT2</t>
+  </si>
+  <si>
+    <t>DecnFT3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +92,14 @@
       <color rgb="FF008000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,11 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,10 +407,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9D28C0-9083-47FE-863A-84A28613A5E2}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/Resources/Testdata.xlsx
+++ b/Resources/Testdata.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8233A6-6DD7-477D-9EA0-B4A28263CE2F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A003E9-1B51-4318-BB87-75EE63FBC2B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,9 +44,6 @@
     <t>Taskname</t>
   </si>
   <si>
-    <t>Task112211</t>
-  </si>
-  <si>
     <t>communityname</t>
   </si>
   <si>
@@ -62,16 +59,19 @@
     <t>Base</t>
   </si>
   <si>
-    <t>FTNames</t>
-  </si>
-  <si>
-    <t>DecnFT1</t>
-  </si>
-  <si>
-    <t>DecnFT2</t>
-  </si>
-  <si>
-    <t>DecnFT3</t>
+    <t>SumTask1</t>
+  </si>
+  <si>
+    <t>FactTypes</t>
+  </si>
+  <si>
+    <t>FT1103</t>
+  </si>
+  <si>
+    <t>FT1101</t>
+  </si>
+  <si>
+    <t>FT1102</t>
   </si>
 </sst>
 </file>
@@ -407,45 +407,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9D28C0-9083-47FE-863A-84A28613A5E2}">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,12 +449,12 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -496,18 +462,57 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30953DF-6A8D-4335-BF6D-5957AC78BA1A}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/Testdata.xlsx
+++ b/Resources/Testdata.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A003E9-1B51-4318-BB87-75EE63FBC2B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E51408-46D9-4C5F-8D82-3F153808B518}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>User</t>
   </si>
@@ -72,13 +75,115 @@
   </si>
   <si>
     <t>FT1102</t>
+  </si>
+  <si>
+    <t>CreateNewFT</t>
+  </si>
+  <si>
+    <t>Sl.no</t>
+  </si>
+  <si>
+    <t>Single and Text,anyvalue</t>
+  </si>
+  <si>
+    <t>Multiple and Text,anyvalue</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Single , Numeric ,Regular Set</t>
+  </si>
+  <si>
+    <t>Single  Numeric ,range</t>
+  </si>
+  <si>
+    <t>FT DataTypes</t>
+  </si>
+  <si>
+    <t>FT Allowed Values</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Basis points</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Date &amp; time</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Enumerator</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Month &amp; year</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Any value</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Regular set</t>
+  </si>
+  <si>
+    <t>SetValues</t>
+  </si>
+  <si>
+    <t>NewFT1044</t>
+  </si>
+  <si>
+    <t>NewFT111</t>
+  </si>
+  <si>
+    <t>NewFT222</t>
+  </si>
+  <si>
+    <t>NewFT333</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +202,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,12 +241,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30953DF-6A8D-4335-BF6D-5957AC78BA1A}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -519,4 +643,313 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969B4982-0A98-43DA-A943-493164234C40}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5006A4-311E-4B0E-9942-DFB61ABF9605}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEBDA9E-88C1-463B-B689-65D6F95BE0AC}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resources/Testdata.xlsx
+++ b/Resources/Testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E51408-46D9-4C5F-8D82-3F153808B518}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FB903C-E9E1-4616-9ADF-6C237BA0D8A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="ConditionCells" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>User</t>
   </si>
@@ -47,36 +48,18 @@
     <t>Taskname</t>
   </si>
   <si>
-    <t>communityname</t>
-  </si>
-  <si>
     <t>DecisionName</t>
   </si>
   <si>
-    <t>Decin1110</t>
-  </si>
-  <si>
     <t>ViewName</t>
   </si>
   <si>
     <t>Base</t>
   </si>
   <si>
-    <t>SumTask1</t>
-  </si>
-  <si>
     <t>FactTypes</t>
   </si>
   <si>
-    <t>FT1103</t>
-  </si>
-  <si>
-    <t>FT1101</t>
-  </si>
-  <si>
-    <t>FT1102</t>
-  </si>
-  <si>
     <t>CreateNewFT</t>
   </si>
   <si>
@@ -167,16 +150,46 @@
     <t>SetValues</t>
   </si>
   <si>
-    <t>NewFT1044</t>
-  </si>
-  <si>
-    <t>NewFT111</t>
-  </si>
-  <si>
-    <t>NewFT222</t>
-  </si>
-  <si>
-    <t>NewFT333</t>
+    <t>Communityname</t>
+  </si>
+  <si>
+    <t>ConditionValues</t>
+  </si>
+  <si>
+    <t>Hundai</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>TestFT11</t>
+  </si>
+  <si>
+    <t>TestFT12</t>
+  </si>
+  <si>
+    <t>TestFT13</t>
+  </si>
+  <si>
+    <t>TestFT14</t>
+  </si>
+  <si>
+    <t>SumTask010</t>
+  </si>
+  <si>
+    <t>Decisionname1</t>
+  </si>
+  <si>
+    <t>Name1</t>
+  </si>
+  <si>
+    <t>Name2</t>
+  </si>
+  <si>
+    <t>Name3</t>
   </si>
 </sst>
 </file>
@@ -534,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,12 +586,12 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -586,18 +599,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -611,7 +624,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,22 +634,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -649,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969B4982-0A98-43DA-A943-493164234C40}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,13 +675,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -677,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -688,10 +701,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -699,10 +712,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -710,10 +723,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -730,7 +743,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,56 +754,56 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -799,7 +812,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -808,7 +821,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -817,7 +830,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -826,7 +839,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -835,7 +848,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -844,7 +857,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -853,7 +866,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -862,7 +875,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -871,7 +884,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -880,7 +893,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -889,7 +902,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -921,7 +934,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -952,4 +965,41 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FADF381-E5C2-46A9-ABA7-6F99E08E6D89}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resources/Testdata.xlsx
+++ b/Resources/Testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FB903C-E9E1-4616-9ADF-6C237BA0D8A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E97B3-608B-4F68-B253-16D6BE886EC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>User</t>
   </si>
@@ -165,31 +165,25 @@
     <t>City</t>
   </si>
   <si>
-    <t>TestFT11</t>
-  </si>
-  <si>
-    <t>TestFT12</t>
-  </si>
-  <si>
-    <t>TestFT13</t>
-  </si>
-  <si>
-    <t>TestFT14</t>
-  </si>
-  <si>
-    <t>SumTask010</t>
-  </si>
-  <si>
-    <t>Decisionname1</t>
-  </si>
-  <si>
-    <t>Name1</t>
-  </si>
-  <si>
-    <t>Name2</t>
-  </si>
-  <si>
-    <t>Name3</t>
+    <t>DemoFT1</t>
+  </si>
+  <si>
+    <t>DemoFT2</t>
+  </si>
+  <si>
+    <t>DemoFT3</t>
+  </si>
+  <si>
+    <t>DemoFT4</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
 </sst>
 </file>
@@ -548,7 +542,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,10 +615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30953DF-6A8D-4335-BF6D-5957AC78BA1A}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,17 +633,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +652,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,7 +732,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +916,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FADF381-E5C2-46A9-ABA7-6F99E08E6D89}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Resources/Testdata.xlsx
+++ b/Resources/Testdata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E97B3-608B-4F68-B253-16D6BE886EC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FB88C2-7412-4310-86DC-1F529E767A40}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>User</t>
   </si>
@@ -51,12 +51,6 @@
     <t>DecisionName</t>
   </si>
   <si>
-    <t>ViewName</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
     <t>FactTypes</t>
   </si>
   <si>
@@ -165,25 +159,31 @@
     <t>City</t>
   </si>
   <si>
-    <t>DemoFT1</t>
-  </si>
-  <si>
-    <t>DemoFT2</t>
-  </si>
-  <si>
-    <t>DemoFT3</t>
-  </si>
-  <si>
-    <t>DemoFT4</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>D2</t>
+    <t>DemoTask2402</t>
+  </si>
+  <si>
+    <t>DemoDecision2</t>
+  </si>
+  <si>
+    <t>DemoFT121</t>
+  </si>
+  <si>
+    <t>DemoFT122</t>
+  </si>
+  <si>
+    <t>DemoFT123</t>
+  </si>
+  <si>
+    <t>DemoFT224</t>
+  </si>
+  <si>
+    <t>DemoFT225</t>
+  </si>
+  <si>
+    <t>DemoFT226</t>
+  </si>
+  <si>
+    <t>DemoFT227</t>
   </si>
 </sst>
 </file>
@@ -539,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,12 +580,12 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -596,15 +596,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -615,10 +607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30953DF-6A8D-4335-BF6D-5957AC78BA1A}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,17 +620,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -652,7 +649,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,13 +661,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -679,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -690,10 +687,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -701,10 +698,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -712,10 +709,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -732,7 +729,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,56 +740,56 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -801,7 +798,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -810,7 +807,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -819,7 +816,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -828,7 +825,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -837,7 +834,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -846,7 +843,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -855,7 +852,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -864,7 +861,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -873,7 +870,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -882,7 +879,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -891,7 +888,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -916,14 +913,14 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -947,9 +944,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>6</v>
-      </c>
+      <c r="A6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -971,22 +966,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
